--- a/medicine/Pharmacie/Reckitt/Reckitt.xlsx
+++ b/medicine/Pharmacie/Reckitt/Reckitt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Reckitt (anciennement Reckitt Benckiser) est une multinationale anglaise qui fabrique et distribue des produits d'entretien, des produits d'hygiène et des produits pharmaceutiques.
-Issue de la fusion, en mars 1999, de la société britannique Reckitt &amp; Colman et de la société néerlandaise Benckiser, l'entreprise est le numéro 1 mondial des produits d'entretien ménager[7].
+Issue de la fusion, en mars 1999, de la société britannique Reckitt &amp; Colman et de la société néerlandaise Benckiser, l'entreprise est le numéro 1 mondial des produits d'entretien ménager.
 </t>
         </is>
       </c>
@@ -515,27 +527,18 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Reckitt
-À la fin du XIXe siècle, Reckitt &amp; Sons commence son expansion en ouvrant des filiales à travers le monde, dont la première en Australie.
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À la fin du XIXe siècle, Reckitt &amp; Sons commence son expansion en ouvrant des filiales à travers le monde, dont la première en Australie.
 En 1888, Reckitt &amp; Sons fait son entrée à la bourse de valeurs de Londres.
 En 1913, une coentreprise est créée en Amérique du Sud entre Reckitt &amp; Sons et J&amp;J Colman - Atlantis. Cette opération fut une réussite et elle a été étendue en 1921 à l'ensemble des opérations commerciales en dehors de la Grande-Bretagne.
 Au début du XXe siècle, l'entreprise se diversifie avec d'autres marques de produits d'entretien.
 En 1938, Reckitt &amp; Sons fusionne avec J&amp;J Colman pour devenir Reckitt &amp; Colman.
 En 1985, Reckitt &amp; Colman achète les produits de la marque Airwick. En 1990, Reckitt &amp; Colman acquiert Boyle-Midway, un groupe de produits d'entretien américain avec les marques Woolite, Easy-off, Sani-Flush, Wizard et Old English.
-Benckiser
-Benckiser se diversifie alors vers les biens de consommation et les produits de nettoyage industriel. Dans les années 1980, Benckiser continue son expansion vers les biens de consommation par le biais d'acquisitions.
-En 1988, Benckiser achète Mira Lanza (it) et Panigal en Italie. En 1989, Benckiser achète Camp Group en Espagne. En 1990, Benckiser fait l'acquisition de l'entreprise de produits d'entretien Beecham (présente aux États-Unis et au Canada). En 1991, Benckiser lance son expansion en Europe de l'Est.
-Fusion
-En 1999, Reckitt &amp; Colman et Benckiser fusionnent pour former Reckitt Benckiser - le numéro 1 mondial des produits d'entretien ménager[7].
-En 2006, Reckitt Benckiser réalise l'acquisition de Boots Healthcare International pour 1,926 million de livres sterling, et bénéficie ainsi d’un nouveau relais de croissance sur le marché des produits pharmaceutiques sans prescription médicale. L'entité Reckitt Benckiser Healthcare est alors créée en juin 2006.
-Le secteur pharmaceutique devient en 2009 une priorité stratégique pour Reckitt Benckiser, puisqu'il représente un potentiel de croissance important lié au vieillissement des populations, au développement de l'automédication et aux possibilités de délistage de molécules.
-En 2010, l'entreprise rachète SSL International, le fabricant des préservatifs Durex et des produits Scholl (soins des pieds et chaussures)[8].
-En 2012, l'entreprise rachète Schiff Nutrition, supplémenteur nutritionnel[9].
-En mars 2014, Reckitt Benckiser acquiert la marque de lubrifiant K-Y auprès de Johnson &amp; Johnson pour un prix inconnu[10]. En juillet 2014, Reckitt Benckiser revend la branche chaussure de Scholl au fonds d'investissement allemand Aurelius[11].
-En juin 2017, Reckitt Benckiser annonce le rachat de Mead Johnson Nutrition pour un montant proche de 16,6 milliards de dollars[12].
-En juillet 2017, McCormick annonce l'acquisition de la division nourriture de Reckitt Benckiser, incluant notamment la marque French's, pour 4,2 milliards de dollars[13].
-En mars 2021, le groupe se renomme simplement Reckitt, abandonnant Benckiser. L'entreprise cède la marque Scholl à Yellow Woods, propriétaire des chaussures de la marque Dr.Scholl.
-En juin 2021, Reckitt annonce la vente de son activité de lait en poudre pour bébé en Chine pour 2,2 milliards de dollars, à un fonds d'investissement[14].
 </t>
         </is>
       </c>
@@ -561,12 +564,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Principaux actionnaires</t>
+          <t>Histoire</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Au 25 janvier 2020[15] :
+          <t>Benckiser</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benckiser se diversifie alors vers les biens de consommation et les produits de nettoyage industriel. Dans les années 1980, Benckiser continue son expansion vers les biens de consommation par le biais d'acquisitions.
+En 1988, Benckiser achète Mira Lanza (it) et Panigal en Italie. En 1989, Benckiser achète Camp Group en Espagne. En 1990, Benckiser fait l'acquisition de l'entreprise de produits d'entretien Beecham (présente aux États-Unis et au Canada). En 1991, Benckiser lance son expansion en Europe de l'Est.
 </t>
         </is>
       </c>
@@ -592,44 +602,127 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Fusion</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1999, Reckitt &amp; Colman et Benckiser fusionnent pour former Reckitt Benckiser - le numéro 1 mondial des produits d'entretien ménager.
+En 2006, Reckitt Benckiser réalise l'acquisition de Boots Healthcare International pour 1,926 million de livres sterling, et bénéficie ainsi d’un nouveau relais de croissance sur le marché des produits pharmaceutiques sans prescription médicale. L'entité Reckitt Benckiser Healthcare est alors créée en juin 2006.
+Le secteur pharmaceutique devient en 2009 une priorité stratégique pour Reckitt Benckiser, puisqu'il représente un potentiel de croissance important lié au vieillissement des populations, au développement de l'automédication et aux possibilités de délistage de molécules.
+En 2010, l'entreprise rachète SSL International, le fabricant des préservatifs Durex et des produits Scholl (soins des pieds et chaussures).
+En 2012, l'entreprise rachète Schiff Nutrition, supplémenteur nutritionnel.
+En mars 2014, Reckitt Benckiser acquiert la marque de lubrifiant K-Y auprès de Johnson &amp; Johnson pour un prix inconnu. En juillet 2014, Reckitt Benckiser revend la branche chaussure de Scholl au fonds d'investissement allemand Aurelius.
+En juin 2017, Reckitt Benckiser annonce le rachat de Mead Johnson Nutrition pour un montant proche de 16,6 milliards de dollars.
+En juillet 2017, McCormick annonce l'acquisition de la division nourriture de Reckitt Benckiser, incluant notamment la marque French's, pour 4,2 milliards de dollars.
+En mars 2021, le groupe se renomme simplement Reckitt, abandonnant Benckiser. L'entreprise cède la marque Scholl à Yellow Woods, propriétaire des chaussures de la marque Dr.Scholl.
+En juin 2021, Reckitt annonce la vente de son activité de lait en poudre pour bébé en Chine pour 2,2 milliards de dollars, à un fonds d'investissement.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Principaux actionnaires</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au 25 janvier 2020 :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Organisation de l'entreprise</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">En 1998, Reckitt &amp; Colman fait fusionner Wizard avec AirWick pour donner AirWick.
-Reckitt Benckiser possède aujourd'hui un large éventail de marques ayant une notoriété et une part de marché importantes dans les pays ou elles sont distribuées. L'entreprise possède 19 "marques fortes", distribuées dans plus de 200 pays, parmi lesquelles on peut citer Airwick, Calgon, Cillit Bang, Harpic, Vanish, Veet et Woolite pour les produits d'entretien, et Strepsil, Gaviscon, Nurofen, Lutsine et Biactol-Clearasil pour les produits pharmaceutiques[16]. Elle détient également de très nombreuses marques locales, spécifiques à un ou deux pays, comme Saint Marc ou Destop en France.
+Reckitt Benckiser possède aujourd'hui un large éventail de marques ayant une notoriété et une part de marché importantes dans les pays ou elles sont distribuées. L'entreprise possède 19 "marques fortes", distribuées dans plus de 200 pays, parmi lesquelles on peut citer Airwick, Calgon, Cillit Bang, Harpic, Vanish, Veet et Woolite pour les produits d'entretien, et Strepsil, Gaviscon, Nurofen, Lutsine et Biactol-Clearasil pour les produits pharmaceutiques. Elle détient également de très nombreuses marques locales, spécifiques à un ou deux pays, comme Saint Marc ou Destop en France.
 Elle s'appuie pour cela sur des filiales présentes dans chaque pays : Reckitt Benckiser France en France, Reckitt Benckiser Inc. aux États-Unis.
 Le siège social de Reckitt Benckiser France se situe au 38, rue Victor Basch à Massy, et l'unique usine de fabrication française du groupe se situe au 102, route de Sours, à Chartres (Eure-et-Loir).
 </t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Reckitt</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Chiffres clés</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, le chiffre d'affaires de Reckitt Benckiser a été de 707 millions d’euros en 2008, dont 618 millions d’euros pour les produits d’entretien de la maison et 89 millions d’euros pour les produits pharmaceutiques.
 Reckitt Benckiser compte 636 salariés en France, répartis entre le siège et le site de production.
@@ -638,41 +731,114 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Reckitt</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Ses principales marques en France</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Soin du linge
-Calgon : Anti-calcaire
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Soin du linge</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Calgon : Anti-calcaire
 Fabulon
 Vanish : Détachants pour le linge
-Woolite : lessive
-Produits lave-vaisselle
-Finish (anciennement Calgonit)
-Entretien de la maison
-Fabulon :  Aide au repassage
+Woolite : lessive</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Ses principales marques en France</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Produits lave-vaisselle</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Finish (anciennement Calgonit)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Ses principales marques en France</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Entretien de la maison</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Fabulon :  Aide au repassage
 Lysol : Désinfectant Covid
 Air Wick : Désodorisants
 Harpic : Produits sanitaires
@@ -681,14 +847,48 @@
 Jex : Tampons abrasifs et récurrents
 Cillit Bang : Nettoyants ménagers
 Saint Marc : Nettoyants ménagers
-Ça-va-seul : produits d'entretien pour chaussures[17]
-Soin de la personne et santé
-Veet : Produits dépilatoires et post-dépilatoires
+Ça-va-seul : produits d'entretien pour chaussures</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Ses principales marques en France</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Soin de la personne et santé</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Veet : Produits dépilatoires et post-dépilatoires
 Clearasil (Biactol) : Peaux Jeunes
 Intima : Hygiène féminine intime
 Steradent : Produits d'hygiène bucco-dentaires pour les porteurs de prothèse (nettoyant dentaire et crème fixative)
 Dettol : Savons liquides anti-bactériens, gel hydroalcoolique
-Gaviscon : Médicament utilisé pour le traitement symptomatique des reflux gastro-œsophagiens. Ce médicament, disponibles sous spécialités, contient deux parabènes[18], [19] — le parahydroxybenzoate de propyle (E216) et le parahydroxybenzoate de méthyle (E218) — « […] ces conservateurs dont la toxicité et les effets cancérigènes font l’objet de débats scientifiques et dont l’Assemblée nationale a voté l’interdiction le 3 mai 2011[18]».
+Gaviscon : Médicament utilisé pour le traitement symptomatique des reflux gastro-œsophagiens. Ce médicament, disponibles sous spécialités, contient deux parabènes,  — le parahydroxybenzoate de propyle (E216) et le parahydroxybenzoate de méthyle (E218) — « […] ces conservateurs dont la toxicité et les effets cancérigènes font l’objet de débats scientifiques et dont l’Assemblée nationale a voté l’interdiction le 3 mai 2011».
 Strepsils : Pastille à sucer contre les maux de gorge et les petites plaies de la bouche.
 Strefen : Pastille à sucer contre les maux de gorge contenant un anti-inflammatoire local. Réservé à l'adulte et à l'enfant de plus de 12 ans.
 Nurofen : Gamme de médicaments anti-inflammatoires oraux dont le principe actif est l'ibuprofène.
@@ -696,33 +896,35 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Reckitt</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Pharmacie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Reckitt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Pharmacie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Reckitt</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En novembre 2016, Amnesty International publie un rapport dénonçant le travail des enfants et le travail forcé dans les plantations indonésiennes de palmiers à huile fournissant des entreprises comme Reckitt Benckiser, Nestlé, Unilever, Kellogg's, Colgate-Palmolive et Procter &amp; Gamble[20],[21].
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En novembre 2016, Amnesty International publie un rapport dénonçant le travail des enfants et le travail forcé dans les plantations indonésiennes de palmiers à huile fournissant des entreprises comme Reckitt Benckiser, Nestlé, Unilever, Kellogg's, Colgate-Palmolive et Procter &amp; Gamble,.
 </t>
         </is>
       </c>
